--- a/CyclicPeptidePipeline/coldata.xlsx
+++ b/CyclicPeptidePipeline/coldata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC214C-A1D9-4F91-B396-8FC747252C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1F592-7194-443C-85D0-57193B156882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,12 +376,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
